--- a/DATA/game1/data.xlsx
+++ b/DATA/game1/data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuba\Documents\GitHub\marty_socialnetwork\DATA\game1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FC59EF-3C98-4D1F-AE22-4A78A164FE3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E10F4CD-10B5-4023-B90B-6B12381751DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{61B3A0F5-239D-4F06-8491-0D32BBFF3988}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{61B3A0F5-239D-4F06-8491-0D32BBFF3988}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
     <sheet name="users_JSON" sheetId="2" r:id="rId2"/>
+    <sheet name="posts" sheetId="3" r:id="rId3"/>
+    <sheet name="posts_JSON" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>user_id</t>
   </si>
@@ -136,6 +138,112 @@
         friends: **FRIENDS**,
         about_info: **ABOUT**
     },</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>posted_by</t>
+  </si>
+  <si>
+    <t>malltv</t>
+  </si>
+  <si>
+    <t>rady.pana.koziska</t>
+  </si>
+  <si>
+    <t>published</t>
+  </si>
+  <si>
+    <t>post_text</t>
+  </si>
+  <si>
+    <t>extra_content</t>
+  </si>
+  <si>
+    <t>quiz_action</t>
+  </si>
+  <si>
+    <t>Nezahrál by si někdo counterstrike???</t>
+  </si>
+  <si>
+    <t>Už se těším na podzimní prázdniny!</t>
+  </si>
+  <si>
+    <t>Moc mě mrzí když ti člověk pro kterého by jste udělali cokoliv lže :(</t>
+  </si>
+  <si>
+    <t>Jo lidi! Prší ... nemusíte to psát na sítě :/</t>
+  </si>
+  <si>
+    <t>Letošní dovolenou v Itálii jsem si náramě užil. Mrkněte na fotky!</t>
+  </si>
+  <si>
+    <t>O jaké video šlo a zabil Marty svého psa? Uvidíte v novém díle #martyisdead už teď 👉 https://bit.ly/martyisdead_friend</t>
+  </si>
+  <si>
+    <t>Jaké jsou nejčastější způsoby kontaktu internetových predátorů? Poslechněte si tipy Martina Kožíška a nenaleťte podvodníkům!</t>
+  </si>
+  <si>
+    <t>privacy_settings</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>{type: "photo",  url: [ 
+                        "https://www.irozhlas.cz/sites/default/files/styles/zpravy_otvirak_velky/public/uploader/jakub_nemcok_jako_pa_191018-093542_kro.JPG?itok=ZpzwVeCA",
+                        "https://img.blesk.cz/img/1/normal690/5994234-img-marty-is-dead-v0.jpg",
+                        "https://dehayf5mhw1h7.cloudfront.net/wp-content/uploads/sites/683/2020/01/03230000/Getty_Buckinghams630_010320.jpg"
+                    ]
+}</t>
+  </si>
+  <si>
+    <t>{"placement": "post_text", "question": "Je potřeba řešit nastavení soukromí u příspěvku?", "answers": ['Ano.', 'Ne.'], "right_answer_position": 1, "max_points": 100 }</t>
+  </si>
+  <si>
+    <t>{ "hoursAgo": 5, "minutesAgo": 8 }</t>
+  </si>
+  <si>
+    <t>{"type": "video", "url": "https://www.mall.tv/embed/martyisdead/s1-e2-friend"}</t>
+  </si>
+  <si>
+    <t>{"type": "video", "url": "https://www.mall.tv/embed/martyisdead/1-na-co-si-dat-pozor-pri-seznameni-na-internetu"}</t>
+  </si>
+  <si>
+    <t>{ "daysAgo": 1, "hoursAgo": 5, "minutesAgo": 8 }</t>
+  </si>
+  <si>
+    <t>{ "daysAgo": 2, "hoursAgo": 8, "minutesAgo": 50 }</t>
+  </si>
+  <si>
+    <t>{ "daysAgo": 3, "hoursAgo": 7, "minutesAgo": 8 }</t>
+  </si>
+  <si>
+    <t>{ "daysAgo": 4, "hoursAgo": 5, "minutesAgo": 23 }</t>
+  </si>
+  <si>
+    <t>{ "daysAgo": 5, "hoursAgo": 5, "minutesAgo": 8 }</t>
+  </si>
+  <si>
+    <t>{ "daysAgo": 6, "hoursAgo": 1, "minutesAgo": 10 }</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>{"known": ["me","eliskasvob"], "others": 8}</t>
+  </si>
+  <si>
+    <t>{
+    "posted_by": "**POSTEDBY**",
+    "published": **PUBLISHED**,
+    "privacy_settings": **PRIVACY**,
+    "post_text": "**POSTTEXT**",
+    "extra_content": **EXTRA**,
+    "quiz_action": **QUIZ**,
+    "likes": **LIKES**
+},</t>
   </si>
 </sst>
 </file>
@@ -178,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -187,6 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -501,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6767E98-6FA2-4F7B-BA5C-EE30590B0623}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,13 +621,13 @@
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="56.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,22 +641,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -560,14 +672,14 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -580,11 +692,11 @@
       <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -597,14 +709,14 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -617,14 +729,14 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -637,7 +749,7 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -650,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A1A844-ACC1-4BE1-9C45-CC3FB9FC4926}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -665,7 +777,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I2),"**FRIENDS**",users!E2),"**SEX**",users!D2),"**LASTNAME**",users!C2),"**FIRSTNAME**",users!B2),"**USERID**",users!A2)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J2),"**FRIENDS**",users!F2),"**SEX**",users!D2),"**LASTNAME**",users!C2),"**FIRSTNAME**",users!B2),"**USERID**",users!A2)</f>
         <v xml:space="preserve">    jnovak: {
         first_name: "Jan",
         last_name: "Novák",
@@ -675,9 +787,9 @@
     },</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I3),"**FRIENDS**",users!E3),"**SEX**",users!D3),"**LASTNAME**",users!C3),"**FIRSTNAME**",users!B3),"**USERID**",users!A3)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J3),"**FRIENDS**",users!F3),"**SEX**",users!D3),"**LASTNAME**",users!C3),"**FIRSTNAME**",users!B3),"**USERID**",users!A3)</f>
         <v xml:space="preserve">    eliskasvob: {
         first_name: "Eliška",
         last_name: "Svobodová",
@@ -687,9 +799,9 @@
     },</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I4),"**FRIENDS**",users!E4),"**SEX**",users!D4),"**LASTNAME**",users!C4),"**FIRSTNAME**",users!B4),"**USERID**",users!A4)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J4),"**FRIENDS**",users!F4),"**SEX**",users!D4),"**LASTNAME**",users!C4),"**FIRSTNAME**",users!B4),"**USERID**",users!A4)</f>
         <v xml:space="preserve">    dvorakova.nela: {
         first_name: "Nela",
         last_name: "Dvořáková",
@@ -699,9 +811,9 @@
     },</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I5),"**FRIENDS**",users!E5),"**SEX**",users!D5),"**LASTNAME**",users!C5),"**FIRSTNAME**",users!B5),"**USERID**",users!A5)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J5),"**FRIENDS**",users!F5),"**SEX**",users!D5),"**LASTNAME**",users!C5),"**FIRSTNAME**",users!B5),"**USERID**",users!A5)</f>
         <v xml:space="preserve">    jakub.cerny: {
         first_name: "Jakub",
         last_name: "Černý",
@@ -711,9 +823,9 @@
     },</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I6),"**FRIENDS**",users!E6),"**SEX**",users!D6),"**LASTNAME**",users!C6),"**FIRSTNAME**",users!B6),"**USERID**",users!A6)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J6),"**FRIENDS**",users!F6),"**SEX**",users!D6),"**LASTNAME**",users!C6),"**FIRSTNAME**",users!B6),"**USERID**",users!A6)</f>
         <v xml:space="preserve">    pepino: {
         first_name: "Pepíno",
         last_name: ""Poky" Pokorný",
@@ -723,9 +835,9 @@
     },</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I7),"**FRIENDS**",users!E7),"**SEX**",users!D7),"**LASTNAME**",users!C7),"**FIRSTNAME**",users!B7),"**USERID**",users!A7)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J7),"**FRIENDS**",users!F7),"**SEX**",users!D7),"**LASTNAME**",users!C7),"**FIRSTNAME**",users!B7),"**USERID**",users!A7)</f>
         <v xml:space="preserve">    : {
         first_name: "",
         last_name: "",
@@ -735,9 +847,9 @@
     },</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I8),"**FRIENDS**",users!E8),"**SEX**",users!D8),"**LASTNAME**",users!C8),"**FIRSTNAME**",users!B8),"**USERID**",users!A8)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J8),"**FRIENDS**",users!F8),"**SEX**",users!D8),"**LASTNAME**",users!C8),"**FIRSTNAME**",users!B8),"**USERID**",users!A8)</f>
         <v xml:space="preserve">    : {
         first_name: "",
         last_name: "",
@@ -747,9 +859,9 @@
     },</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I9),"**FRIENDS**",users!E9),"**SEX**",users!D9),"**LASTNAME**",users!C9),"**FIRSTNAME**",users!B9),"**USERID**",users!A9)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J9),"**FRIENDS**",users!F9),"**SEX**",users!D9),"**LASTNAME**",users!C9),"**FIRSTNAME**",users!B9),"**USERID**",users!A9)</f>
         <v xml:space="preserve">    : {
         first_name: "",
         last_name: "",
@@ -759,9 +871,9 @@
     },</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I10),"**FRIENDS**",users!E10),"**SEX**",users!D10),"**LASTNAME**",users!C10),"**FIRSTNAME**",users!B10),"**USERID**",users!A10)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J10),"**FRIENDS**",users!F10),"**SEX**",users!D10),"**LASTNAME**",users!C10),"**FIRSTNAME**",users!B10),"**USERID**",users!A10)</f>
         <v xml:space="preserve">    : {
         first_name: "",
         last_name: "",
@@ -771,9 +883,9 @@
     },</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I11),"**FRIENDS**",users!E11),"**SEX**",users!D11),"**LASTNAME**",users!C11),"**FIRSTNAME**",users!B11),"**USERID**",users!A11)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J11),"**FRIENDS**",users!F11),"**SEX**",users!D11),"**LASTNAME**",users!C11),"**FIRSTNAME**",users!B11),"**USERID**",users!A11)</f>
         <v xml:space="preserve">    : {
         first_name: "",
         last_name: "",
@@ -783,9 +895,9 @@
     },</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I12),"**FRIENDS**",users!E12),"**SEX**",users!D12),"**LASTNAME**",users!C12),"**FIRSTNAME**",users!B12),"**USERID**",users!A12)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J12),"**FRIENDS**",users!F12),"**SEX**",users!D12),"**LASTNAME**",users!C12),"**FIRSTNAME**",users!B12),"**USERID**",users!A12)</f>
         <v xml:space="preserve">    : {
         first_name: "",
         last_name: "",
@@ -795,9 +907,9 @@
     },</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I13),"**FRIENDS**",users!E13),"**SEX**",users!D13),"**LASTNAME**",users!C13),"**FIRSTNAME**",users!B13),"**USERID**",users!A13)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J13),"**FRIENDS**",users!F13),"**SEX**",users!D13),"**LASTNAME**",users!C13),"**FIRSTNAME**",users!B13),"**USERID**",users!A13)</f>
         <v xml:space="preserve">    : {
         first_name: "",
         last_name: "",
@@ -807,9 +919,9 @@
     },</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I14),"**FRIENDS**",users!E14),"**SEX**",users!D14),"**LASTNAME**",users!C14),"**FIRSTNAME**",users!B14),"**USERID**",users!A14)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J14),"**FRIENDS**",users!F14),"**SEX**",users!D14),"**LASTNAME**",users!C14),"**FIRSTNAME**",users!B14),"**USERID**",users!A14)</f>
         <v xml:space="preserve">    : {
         first_name: "",
         last_name: "",
@@ -819,9 +931,9 @@
     },</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I15),"**FRIENDS**",users!E15),"**SEX**",users!D15),"**LASTNAME**",users!C15),"**FIRSTNAME**",users!B15),"**USERID**",users!A15)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J15),"**FRIENDS**",users!F15),"**SEX**",users!D15),"**LASTNAME**",users!C15),"**FIRSTNAME**",users!B15),"**USERID**",users!A15)</f>
         <v xml:space="preserve">    : {
         first_name: "",
         last_name: "",
@@ -831,9 +943,9 @@
     },</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I16),"**FRIENDS**",users!E16),"**SEX**",users!D16),"**LASTNAME**",users!C16),"**FIRSTNAME**",users!B16),"**USERID**",users!A16)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J16),"**FRIENDS**",users!F16),"**SEX**",users!D16),"**LASTNAME**",users!C16),"**FIRSTNAME**",users!B16),"**USERID**",users!A16)</f>
         <v xml:space="preserve">    : {
         first_name: "",
         last_name: "",
@@ -843,9 +955,9 @@
     },</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I17),"**FRIENDS**",users!E17),"**SEX**",users!D17),"**LASTNAME**",users!C17),"**FIRSTNAME**",users!B17),"**USERID**",users!A17)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J17),"**FRIENDS**",users!F17),"**SEX**",users!D17),"**LASTNAME**",users!C17),"**FIRSTNAME**",users!B17),"**USERID**",users!A17)</f>
         <v xml:space="preserve">    : {
         first_name: "",
         last_name: "",
@@ -855,9 +967,9 @@
     },</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I18),"**FRIENDS**",users!E18),"**SEX**",users!D18),"**LASTNAME**",users!C18),"**FIRSTNAME**",users!B18),"**USERID**",users!A18)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J18),"**FRIENDS**",users!F18),"**SEX**",users!D18),"**LASTNAME**",users!C18),"**FIRSTNAME**",users!B18),"**USERID**",users!A18)</f>
         <v xml:space="preserve">    : {
         first_name: "",
         last_name: "",
@@ -867,9 +979,9 @@
     },</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!I19),"**FRIENDS**",users!E19),"**SEX**",users!D19),"**LASTNAME**",users!C19),"**FIRSTNAME**",users!B19),"**USERID**",users!A19)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**ABOUT**",users!J19),"**FRIENDS**",users!F19),"**SEX**",users!D19),"**LASTNAME**",users!C19),"**FIRSTNAME**",users!B19),"**USERID**",users!A19)</f>
         <v xml:space="preserve">    : {
         first_name: "",
         last_name: "",
@@ -883,4 +995,748 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9518D67F-E497-4BDF-A4B7-5EC401EDDF85}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982998E5-0E29-41E9-903E-344ACAF73742}">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G2),"**QUIZ**",posts!F2),"**EXTRA**",posts!E2),"**POSTTEXT**",posts!D2),"**PRIVACY**",posts!C2),"**PUBLISHED**",posts!B2),"**POSTEDBY**",posts!A2)</f>
+        <v>{
+    "posted_by": "jnovak",
+    "published": { "hoursAgo": 5, "minutesAgo": 8 },
+    "privacy_settings": all,
+    "post_text": "Nezahrál by si někdo counterstrike???",
+    "extra_content": ,
+    "quiz_action": {"placement": "post_text", "question": "Je potřeba řešit nastavení soukromí u příspěvku?", "answers": ['Ano.', 'Ne.'], "right_answer_position": 1, "max_points": 100 },
+    "likes": {"known": ["me","eliskasvob"], "others": 8}
+},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G3),"**QUIZ**",posts!F3),"**EXTRA**",posts!E3),"**POSTTEXT**",posts!D3),"**PRIVACY**",posts!C3),"**PUBLISHED**",posts!B3),"**POSTEDBY**",posts!A3)</f>
+        <v>{
+    "posted_by": "eliskasvob",
+    "published": { "daysAgo": 1, "hoursAgo": 5, "minutesAgo": 8 },
+    "privacy_settings": all,
+    "post_text": "Už se těším na podzimní prázdniny!",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G4),"**QUIZ**",posts!F4),"**EXTRA**",posts!E4),"**POSTTEXT**",posts!D4),"**PRIVACY**",posts!C4),"**PUBLISHED**",posts!B4),"**POSTEDBY**",posts!A4)</f>
+        <v>{
+    "posted_by": "dvorakova.nela",
+    "published": { "daysAgo": 2, "hoursAgo": 8, "minutesAgo": 50 },
+    "privacy_settings": friends,
+    "post_text": "Moc mě mrzí když ti člověk pro kterého by jste udělali cokoliv lže :(",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G5),"**QUIZ**",posts!F5),"**EXTRA**",posts!E5),"**POSTTEXT**",posts!D5),"**PRIVACY**",posts!C5),"**PUBLISHED**",posts!B5),"**POSTEDBY**",posts!A5)</f>
+        <v>{
+    "posted_by": "jakub.cerny",
+    "published": { "daysAgo": 3, "hoursAgo": 7, "minutesAgo": 8 },
+    "privacy_settings": all,
+    "post_text": "Jo lidi! Prší ... nemusíte to psát na sítě :/",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": {"known": ["me","eliskasvob"], "others": 8}
+},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G6),"**QUIZ**",posts!F6),"**EXTRA**",posts!E6),"**POSTTEXT**",posts!D6),"**PRIVACY**",posts!C6),"**PUBLISHED**",posts!B6),"**POSTEDBY**",posts!A6)</f>
+        <v>{
+    "posted_by": "pepino",
+    "published": { "daysAgo": 4, "hoursAgo": 5, "minutesAgo": 23 },
+    "privacy_settings": friends,
+    "post_text": "Letošní dovolenou v Itálii jsem si náramě užil. Mrkněte na fotky!",
+    "extra_content": {type: "photo",  url: [ 
+                        "https://www.irozhlas.cz/sites/default/files/styles/zpravy_otvirak_velky/public/uploader/jakub_nemcok_jako_pa_191018-093542_kro.JPG?itok=ZpzwVeCA",
+                        "https://img.blesk.cz/img/1/normal690/5994234-img-marty-is-dead-v0.jpg",
+                        "https://dehayf5mhw1h7.cloudfront.net/wp-content/uploads/sites/683/2020/01/03230000/Getty_Buckinghams630_010320.jpg"
+                    ]
+},
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G7),"**QUIZ**",posts!F7),"**EXTRA**",posts!E7),"**POSTTEXT**",posts!D7),"**PRIVACY**",posts!C7),"**PUBLISHED**",posts!B7),"**POSTEDBY**",posts!A7)</f>
+        <v>{
+    "posted_by": "malltv",
+    "published": { "daysAgo": 5, "hoursAgo": 5, "minutesAgo": 8 },
+    "privacy_settings": all,
+    "post_text": "O jaké video šlo a zabil Marty svého psa? Uvidíte v novém díle #martyisdead už teď 👉 https://bit.ly/martyisdead_friend",
+    "extra_content": {"type": "video", "url": "https://www.mall.tv/embed/martyisdead/s1-e2-friend"},
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G8),"**QUIZ**",posts!F8),"**EXTRA**",posts!E8),"**POSTTEXT**",posts!D8),"**PRIVACY**",posts!C8),"**PUBLISHED**",posts!B8),"**POSTEDBY**",posts!A8)</f>
+        <v>{
+    "posted_by": "rady.pana.koziska",
+    "published": { "daysAgo": 6, "hoursAgo": 1, "minutesAgo": 10 },
+    "privacy_settings": all,
+    "post_text": "Jaké jsou nejčastější způsoby kontaktu internetových predátorů? Poslechněte si tipy Martina Kožíška a nenaleťte podvodníkům!",
+    "extra_content": {"type": "video", "url": "https://www.mall.tv/embed/martyisdead/1-na-co-si-dat-pozor-pri-seznameni-na-internetu"},
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G9),"**QUIZ**",posts!F9),"**EXTRA**",posts!E9),"**POSTTEXT**",posts!D9),"**PRIVACY**",posts!C9),"**PUBLISHED**",posts!B9),"**POSTEDBY**",posts!A9)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G10),"**QUIZ**",posts!F10),"**EXTRA**",posts!E10),"**POSTTEXT**",posts!D10),"**PRIVACY**",posts!C10),"**PUBLISHED**",posts!B10),"**POSTEDBY**",posts!A10)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G11),"**QUIZ**",posts!F11),"**EXTRA**",posts!E11),"**POSTTEXT**",posts!D11),"**PRIVACY**",posts!C11),"**PUBLISHED**",posts!B11),"**POSTEDBY**",posts!A11)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G12),"**QUIZ**",posts!F12),"**EXTRA**",posts!E12),"**POSTTEXT**",posts!D12),"**PRIVACY**",posts!C12),"**PUBLISHED**",posts!B12),"**POSTEDBY**",posts!A12)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G13),"**QUIZ**",posts!F13),"**EXTRA**",posts!E13),"**POSTTEXT**",posts!D13),"**PRIVACY**",posts!C13),"**PUBLISHED**",posts!B13),"**POSTEDBY**",posts!A13)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G14),"**QUIZ**",posts!F14),"**EXTRA**",posts!E14),"**POSTTEXT**",posts!D14),"**PRIVACY**",posts!C14),"**PUBLISHED**",posts!B14),"**POSTEDBY**",posts!A14)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G15),"**QUIZ**",posts!F15),"**EXTRA**",posts!E15),"**POSTTEXT**",posts!D15),"**PRIVACY**",posts!C15),"**PUBLISHED**",posts!B15),"**POSTEDBY**",posts!A15)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G16),"**QUIZ**",posts!F16),"**EXTRA**",posts!E16),"**POSTTEXT**",posts!D16),"**PRIVACY**",posts!C16),"**PUBLISHED**",posts!B16),"**POSTEDBY**",posts!A16)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G17),"**QUIZ**",posts!F17),"**EXTRA**",posts!E17),"**POSTTEXT**",posts!D17),"**PRIVACY**",posts!C17),"**PUBLISHED**",posts!B17),"**POSTEDBY**",posts!A17)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G18),"**QUIZ**",posts!F18),"**EXTRA**",posts!E18),"**POSTTEXT**",posts!D18),"**PRIVACY**",posts!C18),"**PUBLISHED**",posts!B18),"**POSTEDBY**",posts!A18)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G19),"**QUIZ**",posts!F19),"**EXTRA**",posts!E19),"**POSTTEXT**",posts!D19),"**PRIVACY**",posts!C19),"**PUBLISHED**",posts!B19),"**POSTEDBY**",posts!A19)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G20),"**QUIZ**",posts!F20),"**EXTRA**",posts!E20),"**POSTTEXT**",posts!D20),"**PRIVACY**",posts!C20),"**PUBLISHED**",posts!B20),"**POSTEDBY**",posts!A20)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G21),"**QUIZ**",posts!F21),"**EXTRA**",posts!E21),"**POSTTEXT**",posts!D21),"**PRIVACY**",posts!C21),"**PUBLISHED**",posts!B21),"**POSTEDBY**",posts!A21)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G22),"**QUIZ**",posts!F22),"**EXTRA**",posts!E22),"**POSTTEXT**",posts!D22),"**PRIVACY**",posts!C22),"**PUBLISHED**",posts!B22),"**POSTEDBY**",posts!A22)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G23),"**QUIZ**",posts!F23),"**EXTRA**",posts!E23),"**POSTTEXT**",posts!D23),"**PRIVACY**",posts!C23),"**PUBLISHED**",posts!B23),"**POSTEDBY**",posts!A23)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G24),"**QUIZ**",posts!F24),"**EXTRA**",posts!E24),"**POSTTEXT**",posts!D24),"**PRIVACY**",posts!C24),"**PUBLISHED**",posts!B24),"**POSTEDBY**",posts!A24)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G25),"**QUIZ**",posts!F25),"**EXTRA**",posts!E25),"**POSTTEXT**",posts!D25),"**PRIVACY**",posts!C25),"**PUBLISHED**",posts!B25),"**POSTEDBY**",posts!A25)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G26),"**QUIZ**",posts!F26),"**EXTRA**",posts!E26),"**POSTTEXT**",posts!D26),"**PRIVACY**",posts!C26),"**PUBLISHED**",posts!B26),"**POSTEDBY**",posts!A26)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G27),"**QUIZ**",posts!F27),"**EXTRA**",posts!E27),"**POSTTEXT**",posts!D27),"**PRIVACY**",posts!C27),"**PUBLISHED**",posts!B27),"**POSTEDBY**",posts!A27)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G28),"**QUIZ**",posts!F28),"**EXTRA**",posts!E28),"**POSTTEXT**",posts!D28),"**PRIVACY**",posts!C28),"**PUBLISHED**",posts!B28),"**POSTEDBY**",posts!A28)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G29),"**QUIZ**",posts!F29),"**EXTRA**",posts!E29),"**POSTTEXT**",posts!D29),"**PRIVACY**",posts!C29),"**PUBLISHED**",posts!B29),"**POSTEDBY**",posts!A29)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G30),"**QUIZ**",posts!F30),"**EXTRA**",posts!E30),"**POSTTEXT**",posts!D30),"**PRIVACY**",posts!C30),"**PUBLISHED**",posts!B30),"**POSTEDBY**",posts!A30)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G31),"**QUIZ**",posts!F31),"**EXTRA**",posts!E31),"**POSTTEXT**",posts!D31),"**PRIVACY**",posts!C31),"**PUBLISHED**",posts!B31),"**POSTEDBY**",posts!A31)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G32),"**QUIZ**",posts!F32),"**EXTRA**",posts!E32),"**POSTTEXT**",posts!D32),"**PRIVACY**",posts!C32),"**PUBLISHED**",posts!B32),"**POSTEDBY**",posts!A32)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G33),"**QUIZ**",posts!F33),"**EXTRA**",posts!E33),"**POSTTEXT**",posts!D33),"**PRIVACY**",posts!C33),"**PUBLISHED**",posts!B33),"**POSTEDBY**",posts!A33)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G34),"**QUIZ**",posts!F34),"**EXTRA**",posts!E34),"**POSTTEXT**",posts!D34),"**PRIVACY**",posts!C34),"**PUBLISHED**",posts!B34),"**POSTEDBY**",posts!A34)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G35),"**QUIZ**",posts!F35),"**EXTRA**",posts!E35),"**POSTTEXT**",posts!D35),"**PRIVACY**",posts!C35),"**PUBLISHED**",posts!B35),"**POSTEDBY**",posts!A35)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G36),"**QUIZ**",posts!F36),"**EXTRA**",posts!E36),"**POSTTEXT**",posts!D36),"**PRIVACY**",posts!C36),"**PUBLISHED**",posts!B36),"**POSTEDBY**",posts!A36)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G37),"**QUIZ**",posts!F37),"**EXTRA**",posts!E37),"**POSTTEXT**",posts!D37),"**PRIVACY**",posts!C37),"**PUBLISHED**",posts!B37),"**POSTEDBY**",posts!A37)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G38),"**QUIZ**",posts!F38),"**EXTRA**",posts!E38),"**POSTTEXT**",posts!D38),"**PRIVACY**",posts!C38),"**PUBLISHED**",posts!B38),"**POSTEDBY**",posts!A38)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G39),"**QUIZ**",posts!F39),"**EXTRA**",posts!E39),"**POSTTEXT**",posts!D39),"**PRIVACY**",posts!C39),"**PUBLISHED**",posts!B39),"**POSTEDBY**",posts!A39)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($A$1,"**LIKES**",posts!G40),"**QUIZ**",posts!F40),"**EXTRA**",posts!E40),"**POSTTEXT**",posts!D40),"**PRIVACY**",posts!C40),"**PUBLISHED**",posts!B40),"**POSTEDBY**",posts!A40)</f>
+        <v>{
+    "posted_by": "",
+    "published": ,
+    "privacy_settings": ,
+    "post_text": "",
+    "extra_content": ,
+    "quiz_action": ,
+    "likes": 
+},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>